--- a/Tables/aq_hmf_events_stats_50_90.xlsx
+++ b/Tables/aq_hmf_events_stats_50_90.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,22 +526,22 @@
         <v>110</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="G2" t="n">
-        <v>2204</v>
+        <v>599</v>
       </c>
       <c r="H2" t="n">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="I2" t="n">
-        <v>7.485856681576044</v>
+        <v>32.28538523424162</v>
       </c>
       <c r="J2" t="n">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="K2" t="n">
         <v>21</v>
@@ -569,31 +569,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1683</v>
+        <v>1989</v>
       </c>
       <c r="C3" t="n">
-        <v>109.9295422299579</v>
+        <v>138.553742148302</v>
       </c>
       <c r="D3" t="n">
         <v>110</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="G3" t="n">
-        <v>1180</v>
+        <v>449</v>
       </c>
       <c r="H3" t="n">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="I3" t="n">
-        <v>16.32361565547749</v>
+        <v>49.9591509446383</v>
       </c>
       <c r="J3" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="K3" t="n">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>110</v>
       </c>
       <c r="M3" t="n">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="N3" t="n">
         <v>5</v>
       </c>
       <c r="O3" t="n">
-        <v>59.5287648266189</v>
+        <v>67.05768515232964</v>
       </c>
       <c r="P3" t="n">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
@@ -630,22 +630,22 @@
         <v>239</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="G4" t="n">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="H4" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I4" t="n">
-        <v>0.298726874195904</v>
+        <v>15.12986783550279</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K4" t="n">
         <v>21</v>
@@ -673,49 +673,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>903</v>
+        <v>672</v>
       </c>
       <c r="C5" t="n">
-        <v>129.3613207328061</v>
+        <v>71.07440291208594</v>
       </c>
       <c r="D5" t="n">
-        <v>992</v>
+        <v>888</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="G5" t="n">
-        <v>549</v>
+        <v>87</v>
       </c>
       <c r="H5" t="n">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="I5" t="n">
-        <v>1.018571787576142</v>
+        <v>1.963808451783958</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
         <v>21</v>
       </c>
       <c r="L5" t="n">
-        <v>992</v>
+        <v>888</v>
       </c>
       <c r="M5" t="n">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="N5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O5" t="n">
-        <v>124.7662320246037</v>
+        <v>67.54818000030612</v>
       </c>
       <c r="P5" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6">
@@ -734,22 +734,22 @@
         <v>159</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="G6" t="n">
-        <v>446</v>
+        <v>291</v>
       </c>
       <c r="H6" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="I6" t="n">
-        <v>4.370102599600481</v>
+        <v>88.41684993680511</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="K6" t="n">
         <v>21</v>
@@ -777,31 +777,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>88</v>
+        <v>700</v>
       </c>
       <c r="C7" t="n">
-        <v>52.46461067112519</v>
+        <v>64.72189397202911</v>
       </c>
       <c r="D7" t="n">
         <v>186</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F7" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="G7" t="n">
-        <v>37</v>
+        <v>195</v>
       </c>
       <c r="H7" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="I7" t="n">
-        <v>0.466317299113344</v>
+        <v>8.629166389404558</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="K7" t="n">
         <v>21</v>
@@ -810,16 +810,16 @@
         <v>186</v>
       </c>
       <c r="M7" t="n">
-        <v>19</v>
+        <v>181</v>
       </c>
       <c r="N7" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="O7" t="n">
-        <v>47.59005355279661</v>
+        <v>56.56696738267173</v>
       </c>
       <c r="P7" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
@@ -838,22 +838,22 @@
         <v>142</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="G8" t="n">
-        <v>2767</v>
+        <v>1499</v>
       </c>
       <c r="H8" t="n">
+        <v>28</v>
+      </c>
+      <c r="I8" t="n">
+        <v>468.5025735408341</v>
+      </c>
+      <c r="J8" t="n">
         <v>52</v>
-      </c>
-      <c r="I8" t="n">
-        <v>40.83066246268651</v>
-      </c>
-      <c r="J8" t="n">
-        <v>5</v>
       </c>
       <c r="K8" t="n">
         <v>21</v>
@@ -890,22 +890,22 @@
         <v>179</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F9" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="G9" t="n">
-        <v>2159</v>
+        <v>541</v>
       </c>
       <c r="H9" t="n">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="I9" t="n">
-        <v>34.02017204892307</v>
+        <v>184.3494355547704</v>
       </c>
       <c r="J9" t="n">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="K9" t="n">
         <v>21</v>
@@ -933,46 +933,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1434</v>
+        <v>1419</v>
       </c>
       <c r="C10" t="n">
-        <v>283.1098346959893</v>
+        <v>283.1043394426548</v>
       </c>
       <c r="D10" t="n">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="G10" t="n">
-        <v>960</v>
+        <v>263</v>
       </c>
       <c r="H10" t="n">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="I10" t="n">
-        <v>31.2897461778906</v>
+        <v>138.7079400186793</v>
       </c>
       <c r="J10" t="n">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="K10" t="n">
         <v>21</v>
       </c>
       <c r="L10" t="n">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="M10" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="N10" t="n">
         <v>3</v>
       </c>
       <c r="O10" t="n">
-        <v>99.34322403151556</v>
+        <v>99.33943232873399</v>
       </c>
       <c r="P10" t="n">
         <v>35</v>
@@ -985,31 +985,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5792</v>
+        <v>5690</v>
       </c>
       <c r="C11" t="n">
-        <v>641.3958256900816</v>
+        <v>661.5951057067178</v>
       </c>
       <c r="D11" t="n">
         <v>90</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F11" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="G11" t="n">
-        <v>3701</v>
+        <v>1311</v>
       </c>
       <c r="H11" t="n">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="I11" t="n">
-        <v>79.10372769536559</v>
+        <v>375.4655756011369</v>
       </c>
       <c r="J11" t="n">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="K11" t="n">
         <v>21</v>
@@ -1018,16 +1018,432 @@
         <v>90</v>
       </c>
       <c r="M11" t="n">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="N11" t="n">
+        <v>3</v>
+      </c>
+      <c r="O11" t="n">
+        <v>120.4315558389128</v>
+      </c>
+      <c r="P11" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Northern High Plains</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1261</v>
+      </c>
+      <c r="C12" t="n">
+        <v>61.22269250852735</v>
+      </c>
+      <c r="D12" t="n">
+        <v>110</v>
+      </c>
+      <c r="E12" t="n">
+        <v>7</v>
+      </c>
+      <c r="F12" t="n">
+        <v>21</v>
+      </c>
+      <c r="G12" t="n">
+        <v>242</v>
+      </c>
+      <c r="H12" t="n">
+        <v>19</v>
+      </c>
+      <c r="I12" t="n">
+        <v>20.62937918999313</v>
+      </c>
+      <c r="J12" t="n">
+        <v>34</v>
+      </c>
+      <c r="K12" t="n">
+        <v>21</v>
+      </c>
+      <c r="L12" t="n">
+        <v>110</v>
+      </c>
+      <c r="M12" t="n">
+        <v>66</v>
+      </c>
+      <c r="N12" t="n">
+        <v>5</v>
+      </c>
+      <c r="O12" t="n">
+        <v>32.4946873256469</v>
+      </c>
+      <c r="P12" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Central South High Plains</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2042</v>
+      </c>
+      <c r="C13" t="n">
+        <v>25.96222492512251</v>
+      </c>
+      <c r="D13" t="n">
+        <v>105</v>
+      </c>
+      <c r="E13" t="n">
+        <v>7</v>
+      </c>
+      <c r="F13" t="n">
+        <v>21</v>
+      </c>
+      <c r="G13" t="n">
+        <v>357</v>
+      </c>
+      <c r="H13" t="n">
+        <v>17</v>
+      </c>
+      <c r="I13" t="n">
+        <v>11.65600604424849</v>
+      </c>
+      <c r="J13" t="n">
+        <v>45</v>
+      </c>
+      <c r="K13" t="n">
+        <v>21</v>
+      </c>
+      <c r="L13" t="n">
+        <v>105</v>
+      </c>
+      <c r="M13" t="n">
+        <v>76</v>
+      </c>
+      <c r="N13" t="n">
+        <v>4</v>
+      </c>
+      <c r="O13" t="n">
+        <v>10.12329545795954</v>
+      </c>
+      <c r="P13" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Sacramento River Basin</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>88</v>
+      </c>
+      <c r="C14" t="n">
+        <v>85.32848135354861</v>
+      </c>
+      <c r="D14" t="n">
+        <v>88</v>
+      </c>
+      <c r="E14" t="n">
+        <v>7</v>
+      </c>
+      <c r="F14" t="n">
+        <v>21</v>
+      </c>
+      <c r="G14" t="n">
+        <v>34</v>
+      </c>
+      <c r="H14" t="n">
+        <v>39</v>
+      </c>
+      <c r="I14" t="n">
+        <v>14.3317948923193</v>
+      </c>
+      <c r="J14" t="n">
+        <v>17</v>
+      </c>
+      <c r="K14" t="n">
+        <v>21</v>
+      </c>
+      <c r="L14" t="n">
+        <v>88</v>
+      </c>
+      <c r="M14" t="n">
+        <v>32</v>
+      </c>
+      <c r="N14" t="n">
+        <v>36</v>
+      </c>
+      <c r="O14" t="n">
+        <v>71.6672928184537</v>
+      </c>
+      <c r="P14" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>San Joaquin River Basin</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>42</v>
+      </c>
+      <c r="C15" t="n">
+        <v>41.70848593963566</v>
+      </c>
+      <c r="D15" t="n">
+        <v>239</v>
+      </c>
+      <c r="E15" t="n">
+        <v>7</v>
+      </c>
+      <c r="F15" t="n">
+        <v>21</v>
+      </c>
+      <c r="G15" t="n">
+        <v>11</v>
+      </c>
+      <c r="H15" t="n">
+        <v>26</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.798072943183488</v>
+      </c>
+      <c r="J15" t="n">
         <v>2</v>
       </c>
-      <c r="O11" t="n">
-        <v>107.486675692246</v>
-      </c>
-      <c r="P11" t="n">
-        <v>17</v>
+      <c r="K15" t="n">
+        <v>21</v>
+      </c>
+      <c r="L15" t="n">
+        <v>239</v>
+      </c>
+      <c r="M15" t="n">
+        <v>22</v>
+      </c>
+      <c r="N15" t="n">
+        <v>52</v>
+      </c>
+      <c r="O15" t="n">
+        <v>41.26320919021998</v>
+      </c>
+      <c r="P15" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Texas Gulf Coast</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2445</v>
+      </c>
+      <c r="C16" t="n">
+        <v>329.7549221758335</v>
+      </c>
+      <c r="D16" t="n">
+        <v>142</v>
+      </c>
+      <c r="E16" t="n">
+        <v>7</v>
+      </c>
+      <c r="F16" t="n">
+        <v>21</v>
+      </c>
+      <c r="G16" t="n">
+        <v>636</v>
+      </c>
+      <c r="H16" t="n">
+        <v>26</v>
+      </c>
+      <c r="I16" t="n">
+        <v>127.2366988703678</v>
+      </c>
+      <c r="J16" t="n">
+        <v>39</v>
+      </c>
+      <c r="K16" t="n">
+        <v>21</v>
+      </c>
+      <c r="L16" t="n">
+        <v>142</v>
+      </c>
+      <c r="M16" t="n">
+        <v>168</v>
+      </c>
+      <c r="N16" t="n">
+        <v>7</v>
+      </c>
+      <c r="O16" t="n">
+        <v>177.9619166568936</v>
+      </c>
+      <c r="P16" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Coastal Lowlands</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2858</v>
+      </c>
+      <c r="C17" t="n">
+        <v>564.5812168319511</v>
+      </c>
+      <c r="D17" t="n">
+        <v>63</v>
+      </c>
+      <c r="E17" t="n">
+        <v>7</v>
+      </c>
+      <c r="F17" t="n">
+        <v>21</v>
+      </c>
+      <c r="G17" t="n">
+        <v>863</v>
+      </c>
+      <c r="H17" t="n">
+        <v>30</v>
+      </c>
+      <c r="I17" t="n">
+        <v>341.2658746704663</v>
+      </c>
+      <c r="J17" t="n">
+        <v>60</v>
+      </c>
+      <c r="K17" t="n">
+        <v>21</v>
+      </c>
+      <c r="L17" t="n">
+        <v>63</v>
+      </c>
+      <c r="M17" t="n">
+        <v>86</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3</v>
+      </c>
+      <c r="O17" t="n">
+        <v>168.6622451984923</v>
+      </c>
+      <c r="P17" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Arizona Alluvial</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>411</v>
+      </c>
+      <c r="C18" t="n">
+        <v>57.75358196698393</v>
+      </c>
+      <c r="D18" t="n">
+        <v>888</v>
+      </c>
+      <c r="E18" t="n">
+        <v>7</v>
+      </c>
+      <c r="F18" t="n">
+        <v>21</v>
+      </c>
+      <c r="G18" t="n">
+        <v>32</v>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.9489933809590683</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>21</v>
+      </c>
+      <c r="L18" t="n">
+        <v>888</v>
+      </c>
+      <c r="M18" t="n">
+        <v>42</v>
+      </c>
+      <c r="N18" t="n">
+        <v>10</v>
+      </c>
+      <c r="O18" t="n">
+        <v>55.57192357815123</v>
+      </c>
+      <c r="P18" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Mississippi Embayment</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>4883</v>
+      </c>
+      <c r="C19" t="n">
+        <v>596.2007102600458</v>
+      </c>
+      <c r="D19" t="n">
+        <v>110</v>
+      </c>
+      <c r="E19" t="n">
+        <v>7</v>
+      </c>
+      <c r="F19" t="n">
+        <v>21</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1230</v>
+      </c>
+      <c r="H19" t="n">
+        <v>25</v>
+      </c>
+      <c r="I19" t="n">
+        <v>324.9156304867436</v>
+      </c>
+      <c r="J19" t="n">
+        <v>54</v>
+      </c>
+      <c r="K19" t="n">
+        <v>21</v>
+      </c>
+      <c r="L19" t="n">
+        <v>110</v>
+      </c>
+      <c r="M19" t="n">
+        <v>166</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3</v>
+      </c>
+      <c r="O19" t="n">
+        <v>197.2139653162791</v>
+      </c>
+      <c r="P19" t="n">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
